--- a/soccerway-scraper/example_output.xlsx
+++ b/soccerway-scraper/example_output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kconnolly101\PycharmProjects\soccerway-scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kconnolly101\PycharmProjects\soccerway-scraper\soccerway-scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Week</t>
   </si>
@@ -33,112 +33,112 @@
     <t>Away</t>
   </si>
   <si>
-    <t>H Gol</t>
-  </si>
-  <si>
-    <t>A Gol</t>
-  </si>
-  <si>
-    <t>HT1</t>
-  </si>
-  <si>
-    <t>HT2</t>
-  </si>
-  <si>
-    <t>HT3</t>
-  </si>
-  <si>
-    <t>HT4</t>
-  </si>
-  <si>
-    <t>HT5</t>
-  </si>
-  <si>
-    <t>HT6</t>
-  </si>
-  <si>
-    <t>HT7</t>
-  </si>
-  <si>
-    <t>HT8</t>
-  </si>
-  <si>
-    <t>AT1</t>
-  </si>
-  <si>
-    <t>AT2</t>
-  </si>
-  <si>
-    <t>AT3</t>
-  </si>
-  <si>
-    <t>AT4</t>
-  </si>
-  <si>
-    <t>AT5</t>
-  </si>
-  <si>
-    <t>AT6</t>
-  </si>
-  <si>
-    <t>AT7</t>
-  </si>
-  <si>
-    <t>AT8</t>
-  </si>
-  <si>
-    <t>HB1</t>
-  </si>
-  <si>
-    <t>HB2</t>
-  </si>
-  <si>
-    <t>HB3</t>
-  </si>
-  <si>
-    <t>HB4</t>
-  </si>
-  <si>
-    <t>HB5</t>
-  </si>
-  <si>
-    <t>HB6</t>
-  </si>
-  <si>
-    <t>HB7</t>
-  </si>
-  <si>
-    <t>HB8</t>
-  </si>
-  <si>
-    <t>HB9</t>
-  </si>
-  <si>
-    <t>AW1</t>
-  </si>
-  <si>
-    <t>AW2</t>
-  </si>
-  <si>
-    <t>AW3</t>
-  </si>
-  <si>
-    <t>AW4</t>
-  </si>
-  <si>
-    <t>AW5</t>
-  </si>
-  <si>
-    <t>AW6</t>
-  </si>
-  <si>
-    <t>AW7</t>
-  </si>
-  <si>
-    <t>AW8</t>
-  </si>
-  <si>
-    <t>AW9</t>
+    <t>H Goals</t>
+  </si>
+  <si>
+    <t>A Goals</t>
+  </si>
+  <si>
+    <t>HG1</t>
+  </si>
+  <si>
+    <t>HG2</t>
+  </si>
+  <si>
+    <t>HG3</t>
+  </si>
+  <si>
+    <t>HG4</t>
+  </si>
+  <si>
+    <t>HG5</t>
+  </si>
+  <si>
+    <t>HG6</t>
+  </si>
+  <si>
+    <t>HG7</t>
+  </si>
+  <si>
+    <t>HG8</t>
+  </si>
+  <si>
+    <t>AG1</t>
+  </si>
+  <si>
+    <t>AG2</t>
+  </si>
+  <si>
+    <t>AG3</t>
+  </si>
+  <si>
+    <t>AG4</t>
+  </si>
+  <si>
+    <t>AG5</t>
+  </si>
+  <si>
+    <t>AG6</t>
+  </si>
+  <si>
+    <t>AG7</t>
+  </si>
+  <si>
+    <t>AG8</t>
+  </si>
+  <si>
+    <t>HY1</t>
+  </si>
+  <si>
+    <t>HY2</t>
+  </si>
+  <si>
+    <t>HY3</t>
+  </si>
+  <si>
+    <t>HY4</t>
+  </si>
+  <si>
+    <t>HY5</t>
+  </si>
+  <si>
+    <t>HY6</t>
+  </si>
+  <si>
+    <t>HY7</t>
+  </si>
+  <si>
+    <t>HY8</t>
+  </si>
+  <si>
+    <t>HY9</t>
+  </si>
+  <si>
+    <t>AY1</t>
+  </si>
+  <si>
+    <t>AY2</t>
+  </si>
+  <si>
+    <t>AY3</t>
+  </si>
+  <si>
+    <t>AY4</t>
+  </si>
+  <si>
+    <t>AY5</t>
+  </si>
+  <si>
+    <t>AY6</t>
+  </si>
+  <si>
+    <t>AY7</t>
+  </si>
+  <si>
+    <t>AY8</t>
+  </si>
+  <si>
+    <t>AY9</t>
   </si>
   <si>
     <t>HR1</t>
@@ -162,16 +162,16 @@
     <t>Referee</t>
   </si>
   <si>
-    <t>H Cor</t>
-  </si>
-  <si>
-    <t>A Cor</t>
-  </si>
-  <si>
-    <t>H Off</t>
-  </si>
-  <si>
-    <t>A Off</t>
+    <t>H Corner</t>
+  </si>
+  <si>
+    <t>A Corner</t>
+  </si>
+  <si>
+    <t>H Offside</t>
+  </si>
+  <si>
+    <t>A Offside</t>
   </si>
   <si>
     <t>H Fouls</t>
@@ -192,42 +192,40 @@
     <t>A Shots OFF</t>
   </si>
   <si>
-    <t>27 January 2019</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Internazionale</t>
-  </si>
-  <si>
-    <t>F. Maresca</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>SPAL</t>
-  </si>
-  <si>
-    <t>R. Abisso</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>G. Calvarese</t>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
+    <t>A. Marriner</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>M. Atkinson</t>
+  </si>
+  <si>
+    <t>AFC Bournemouth</t>
+  </si>
+  <si>
+    <t>Cardiff City</t>
+  </si>
+  <si>
+    <t>K. Friend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -443,11 +441,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,6 +540,10 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,436 +828,405 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BG11" sqref="BG11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:57" s="19" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Y1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AA1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AC1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AD1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AE1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AN1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AO1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AP1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AR1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AS1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AT1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="AU1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AV1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="AW1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="30" t="s">
+      <c r="AX1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="32" t="s">
+      <c r="AY1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="16" t="s">
+      <c r="AZ1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="17" t="s">
+      <c r="BA1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="18" t="s">
+      <c r="BB1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="19" t="s">
+      <c r="BC1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="28" t="s">
+      <c r="BD1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="29" t="s">
+      <c r="BE1" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35">
+        <v>43322</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>83</v>
+      </c>
+      <c r="O2">
+        <v>90</v>
+      </c>
+      <c r="W2">
+        <v>54</v>
+      </c>
+      <c r="X2">
+        <v>69</v>
+      </c>
+      <c r="AF2">
+        <v>51</v>
+      </c>
+      <c r="AU2" t="s">
         <v>59</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>35</v>
-      </c>
-      <c r="W2">
-        <v>39</v>
-      </c>
-      <c r="X2">
-        <v>76</v>
-      </c>
-      <c r="Y2">
-        <v>84</v>
-      </c>
-      <c r="AF2">
-        <v>31</v>
-      </c>
-      <c r="AG2">
-        <v>45</v>
-      </c>
-      <c r="AH2">
-        <v>55</v>
-      </c>
-      <c r="AR2">
-        <v>86</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>60</v>
-      </c>
       <c r="AV2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY2">
         <v>2</v>
       </c>
       <c r="AZ2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BA2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BB2">
+        <v>4</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>3</v>
+      </c>
+      <c r="BE2">
         <v>2</v>
-      </c>
-      <c r="BC2">
-        <v>6</v>
-      </c>
-      <c r="BD2">
-        <v>2</v>
-      </c>
-      <c r="BE2">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="35">
+        <v>43323</v>
       </c>
       <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
       </c>
       <c r="G3">
         <v>11</v>
       </c>
-      <c r="H3">
-        <v>53</v>
-      </c>
       <c r="O3">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="P3">
-        <v>75</v>
-      </c>
-      <c r="Q3">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="W3">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="X3">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AF3">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AG3">
-        <v>57</v>
-      </c>
-      <c r="AH3">
-        <v>76</v>
-      </c>
-      <c r="AI3">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="AU3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AV3">
+        <v>3</v>
+      </c>
+      <c r="AW3">
+        <v>5</v>
+      </c>
+      <c r="AX3">
         <v>1</v>
-      </c>
-      <c r="AW3">
-        <v>10</v>
-      </c>
-      <c r="AX3">
-        <v>7</v>
       </c>
       <c r="AY3">
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA3">
         <v>12</v>
       </c>
       <c r="BB3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD3">
+        <v>6</v>
+      </c>
+      <c r="BE3">
         <v>5</v>
-      </c>
-      <c r="BE3">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="35">
+        <v>43323</v>
       </c>
       <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="W4">
+        <v>43</v>
+      </c>
+      <c r="AF4">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="s">
         <v>65</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>44</v>
-      </c>
-      <c r="H4">
-        <v>59</v>
-      </c>
-      <c r="I4">
-        <v>71</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>33</v>
-      </c>
-      <c r="Q4">
-        <v>40</v>
-      </c>
-      <c r="AF4">
-        <v>23</v>
-      </c>
-      <c r="AG4">
-        <v>35</v>
-      </c>
-      <c r="AH4">
-        <v>64</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>66</v>
-      </c>
       <c r="AV4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY4">
         <v>2</v>
       </c>
       <c r="AZ4">
+        <v>11</v>
+      </c>
+      <c r="BA4">
         <v>7</v>
       </c>
-      <c r="BA4">
-        <v>14</v>
-      </c>
       <c r="BB4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD4">
         <v>2</v>
       </c>
       <c r="BE4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/soccerway-scraper/example_output.xlsx
+++ b/soccerway-scraper/example_output.xlsx
@@ -227,7 +227,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,14 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -263,45 +255,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,19 +288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFE7A7A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,111 +387,87 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,7 +753,7 @@
   <dimension ref="A1:BE4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,176 +770,176 @@
     <col min="57" max="57" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="19" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:57" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AE1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AO1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AR1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AS1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AT1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AU1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="14" t="s">
+      <c r="AV1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AW1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="29" t="s">
+      <c r="AX1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="31" t="s">
+      <c r="AY1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="15" t="s">
+      <c r="AZ1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="16" t="s">
+      <c r="BA1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="17" t="s">
+      <c r="BB1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="18" t="s">
+      <c r="BC1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="27" t="s">
+      <c r="BD1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="28" t="s">
+      <c r="BE1" s="27" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1023,7 +947,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="19">
         <v>43322</v>
       </c>
       <c r="C2" t="s">
@@ -1094,7 +1018,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="19">
         <v>43323</v>
       </c>
       <c r="C3" t="s">
@@ -1168,7 +1092,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="19">
         <v>43323</v>
       </c>
       <c r="C4" t="s">
